--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_5.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,694 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[('0:00:08.260000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.7, 18.64)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3555555555555555</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['Bb', 'F', 'Bb', 'F'], ['F', 'Bb', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[['F/2', 'C', 'F', 'C/3'], ['C', 'F/5', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (25.48, 32.76)]</t>
+          <t>[('0:00:22.564557', '0:00:28.578526'), ('0:00:23.586235', '0:00:29.611814')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:57.758000', '0:01:05.204000'), ('0:00:05.121000', '0:00:13.333000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4307692307692308</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86), (84.0, 90.84)]</t>
+          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(88.86, 97.74)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(111.46, 124.8)]</t>
+          <t>[('0:00:34.560000', '0:00:36.420000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:14.200000', '0:00:18.800000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1160714285714286</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G']]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(76.889251, 80.407074)]</t>
+          <t>[('0:00:36.180000', '0:00:37.980000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.82, 24.9)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.64, 6.7)]</t>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.44, 130.84)]</t>
+          <t>[('0:00:13.420000', '0:00:17.820000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:07.540000', '0:00:16.720000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C#:dim7', 'D:maj', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(17.26, 20.08)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[('0:00:02.680000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:41.300000', '0:00:43.480000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4526315789473684</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:15.687550', '0:02:19.228594')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84)]</t>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(44.2, 54.16)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2217245240761478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G', 'C', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(50.506553, 60.804603)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(51.315598, 63.292358)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
